--- a/data/trans_orig/P02F-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P02F-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>286078</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>279440</v>
+        <v>279195</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>290184</v>
+        <v>290252</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9740708577479128</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9514711840322377</v>
+        <v>0.9506371682174384</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.988050508215503</v>
+        <v>0.9882833657811219</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>237</v>
@@ -763,19 +763,19 @@
         <v>266255</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>255389</v>
+        <v>255800</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>274089</v>
+        <v>274183</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9269257653664488</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8890965627677283</v>
+        <v>0.8905303825731625</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9542008336876099</v>
+        <v>0.9545261224460514</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>510</v>
@@ -784,19 +784,19 @@
         <v>552333</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>540808</v>
+        <v>539299</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>561341</v>
+        <v>561829</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.950759968932244</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9309217967446418</v>
+        <v>0.9283241063214829</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9662671891506038</v>
+        <v>0.9671068617976442</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>7615</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3509</v>
+        <v>3441</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14253</v>
+        <v>14498</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02592914225208721</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01194949178449693</v>
+        <v>0.01171663421887817</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04852881596776215</v>
+        <v>0.04936283178256159</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -834,19 +834,19 @@
         <v>20990</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13156</v>
+        <v>13062</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31856</v>
+        <v>31445</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07307423463355125</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04579916631239016</v>
+        <v>0.04547387755394856</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1109034372322717</v>
+        <v>0.1094696174268374</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -855,19 +855,19 @@
         <v>28605</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19597</v>
+        <v>19109</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>40130</v>
+        <v>41639</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04924003106775601</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03373281084939642</v>
+        <v>0.03289313820235585</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06907820325535839</v>
+        <v>0.07167589367851789</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>493543</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>486298</v>
+        <v>485681</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>498759</v>
+        <v>498540</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9801492827378024</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9657606041504917</v>
+        <v>0.9645340443194785</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9905072083140896</v>
+        <v>0.9900717393254321</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>458</v>
@@ -980,19 +980,19 @@
         <v>499710</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>488229</v>
+        <v>488513</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>507918</v>
+        <v>508019</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9560412708937914</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9340757568066143</v>
+        <v>0.934617797682412</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9717442464020887</v>
+        <v>0.9719371099611509</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>918</v>
@@ -1001,19 +1001,19 @@
         <v>993254</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>980913</v>
+        <v>977286</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1003531</v>
+        <v>1001998</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9678703622391015</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.955845200858681</v>
+        <v>0.9523110367382498</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9778849277866247</v>
+        <v>0.976390780904639</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>9996</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4780</v>
+        <v>4999</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17241</v>
+        <v>17858</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01985071726219757</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009492791685910353</v>
+        <v>0.00992826067456791</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03423939584950832</v>
+        <v>0.03546595568052157</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>21</v>
@@ -1051,19 +1051,19 @@
         <v>22977</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14769</v>
+        <v>14668</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>34458</v>
+        <v>34174</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04395872910620861</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02825575359791127</v>
+        <v>0.0280628900388491</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06592424319338561</v>
+        <v>0.06538220231758797</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>31</v>
@@ -1072,19 +1072,19 @@
         <v>32972</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>22695</v>
+        <v>24228</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>45313</v>
+        <v>48940</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03212963776089851</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02211507221337517</v>
+        <v>0.02360921909536094</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04415479914131892</v>
+        <v>0.04768896326174978</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>320063</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>314942</v>
+        <v>314828</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>322120</v>
+        <v>322115</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9905506655193064</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.974703099122</v>
+        <v>0.97434935180588</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9969169563067791</v>
+        <v>0.9969026759406734</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>308</v>
@@ -1197,19 +1197,19 @@
         <v>331827</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>325657</v>
+        <v>325915</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>335838</v>
+        <v>334978</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.981974994743849</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9637160684900907</v>
+        <v>0.9644805903652959</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9938440621801604</v>
+        <v>0.9912992494372582</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>623</v>
@@ -1218,19 +1218,19 @@
         <v>651890</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>644390</v>
+        <v>644646</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>656334</v>
+        <v>656046</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9861668158159669</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9748216538750414</v>
+        <v>0.9752083581742043</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9928905843608057</v>
+        <v>0.9924540668057512</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>3053</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8174</v>
+        <v>8288</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.00944933448069368</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003083043693220943</v>
+        <v>0.003097324059326602</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02529690087800001</v>
+        <v>0.02565064819411991</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1268,19 +1268,19 @@
         <v>6091</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2080</v>
+        <v>2940</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12261</v>
+        <v>12003</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01802500525615106</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.006155937819839581</v>
+        <v>0.00870075056274176</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03628393150990936</v>
+        <v>0.03551940963470405</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -1289,19 +1289,19 @@
         <v>9144</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4700</v>
+        <v>4988</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16644</v>
+        <v>16388</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01383318418403314</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.007109415639190963</v>
+        <v>0.007545933194248895</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02517834612495797</v>
+        <v>0.02479164182579575</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>366553</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>358138</v>
+        <v>356791</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>370667</v>
+        <v>369885</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9859782546083657</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.963342828060472</v>
+        <v>0.9597179680181319</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9970444159653709</v>
+        <v>0.9949401574202269</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>356</v>
@@ -1414,19 +1414,19 @@
         <v>372922</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>362724</v>
+        <v>362319</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>379118</v>
+        <v>379488</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9587898032611617</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.932570862893271</v>
+        <v>0.9315297366459725</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9747188559210163</v>
+        <v>0.9756698707247143</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>694</v>
@@ -1435,19 +1435,19 @@
         <v>739475</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>727271</v>
+        <v>726903</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>747469</v>
+        <v>747532</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9720769298821365</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9560331228662561</v>
+        <v>0.9555504013945907</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9825842971993394</v>
+        <v>0.9826682621749618</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>5213</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1099</v>
+        <v>1881</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13628</v>
+        <v>14975</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01402174539163421</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002955584034629049</v>
+        <v>0.005059842579773156</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03665717193952785</v>
+        <v>0.04028203198186812</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -1485,19 +1485,19 @@
         <v>16029</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9833</v>
+        <v>9463</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26227</v>
+        <v>26632</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04121019673883832</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02528114407898375</v>
+        <v>0.02433012927528503</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06742913710672889</v>
+        <v>0.06847026335402746</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>19</v>
@@ -1506,19 +1506,19 @@
         <v>21242</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>13248</v>
+        <v>13185</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>33446</v>
+        <v>33814</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02792307011786355</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01741570280066059</v>
+        <v>0.01733173782503805</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04396687713374381</v>
+        <v>0.04444959860540829</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>209455</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>203424</v>
+        <v>203734</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>211875</v>
+        <v>211605</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9851237385211238</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9567591715838493</v>
+        <v>0.9582165488416364</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9965071643737012</v>
+        <v>0.9952341975198556</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>205</v>
@@ -1631,19 +1631,19 @@
         <v>212495</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>204959</v>
+        <v>205186</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>216468</v>
+        <v>216609</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9676839686812297</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9333692637183397</v>
+        <v>0.9343999553034229</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9857763131366944</v>
+        <v>0.9864213187016145</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>398</v>
@@ -1652,19 +1652,19 @@
         <v>421950</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>414326</v>
+        <v>412946</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>426964</v>
+        <v>427234</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9762631730305638</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9586252652998757</v>
+        <v>0.955431909236499</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9878643558111724</v>
+        <v>0.9884903895525147</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>3163</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>743</v>
+        <v>1013</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9194</v>
+        <v>8884</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01487626147887619</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003492835626298729</v>
+        <v>0.004765802480144393</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04324082841615077</v>
+        <v>0.04178345115836316</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -1702,19 +1702,19 @@
         <v>7096</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3123</v>
+        <v>2982</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14632</v>
+        <v>14405</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03231603131877021</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01422368686330553</v>
+        <v>0.01357868129838555</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06663073628166027</v>
+        <v>0.06560004469657717</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -1723,19 +1723,19 @@
         <v>10259</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5245</v>
+        <v>4975</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17883</v>
+        <v>19263</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02373682696943625</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01213564418882762</v>
+        <v>0.0115096104474854</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0413747347001243</v>
+        <v>0.04456809076350104</v>
       </c>
     </row>
     <row r="18">
@@ -1827,7 +1827,7 @@
         <v>272129</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>267852</v>
+        <v>268348</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>273072</v>
@@ -1836,7 +1836,7 @@
         <v>0.9965482211185712</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.980882981165451</v>
+        <v>0.9827023571845501</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1</v>
@@ -1848,19 +1848,19 @@
         <v>264621</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>255597</v>
+        <v>255463</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>270910</v>
+        <v>271002</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9449719798209154</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9127463109658528</v>
+        <v>0.9122676822239397</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9674278399763783</v>
+        <v>0.9677558078504951</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>513</v>
@@ -1869,19 +1869,19 @@
         <v>536751</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>527592</v>
+        <v>527878</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>543810</v>
+        <v>544092</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.9704356341918438</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9538774319555633</v>
+        <v>0.9543929504170069</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9831989745806273</v>
+        <v>0.983707726943752</v>
       </c>
     </row>
     <row r="20">
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5220</v>
+        <v>4724</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003451778881428726</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01911701883455008</v>
+        <v>0.0172976428154498</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -1919,19 +1919,19 @@
         <v>15410</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9121</v>
+        <v>9029</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>24434</v>
+        <v>24568</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05502802017908454</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03257216002362177</v>
+        <v>0.03224419214950466</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0872536890341465</v>
+        <v>0.08773231777606029</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>16</v>
@@ -1940,19 +1940,19 @@
         <v>16352</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>9293</v>
+        <v>9011</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>25511</v>
+        <v>25225</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02956436580815622</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01680102541937265</v>
+        <v>0.01629227305624797</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0461225680444368</v>
+        <v>0.04560704958299321</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>653249</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>641334</v>
+        <v>642554</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>658259</v>
+        <v>658067</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9867083083913673</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.968710348166871</v>
+        <v>0.9705529631038703</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9942758643719508</v>
+        <v>0.9939856515419885</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>619</v>
@@ -2065,19 +2065,19 @@
         <v>676046</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>664959</v>
+        <v>666582</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>682262</v>
+        <v>682455</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9772834506543217</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9612563169817147</v>
+        <v>0.9636034239720368</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9862695971625153</v>
+        <v>0.9865490787681086</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1229</v>
@@ -2086,19 +2086,19 @@
         <v>1329295</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1315946</v>
+        <v>1318104</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1338597</v>
+        <v>1339022</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9818924596222197</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9720325438122059</v>
+        <v>0.9736262501041988</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9887636548761096</v>
+        <v>0.989077155903994</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>8800</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3790</v>
+        <v>3982</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>20715</v>
+        <v>19495</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01329169160863279</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.005724135628049428</v>
+        <v>0.006014348458011522</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03128965183312918</v>
+        <v>0.02944703689612972</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>15</v>
@@ -2136,19 +2136,19 @@
         <v>15714</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>9498</v>
+        <v>9305</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>26801</v>
+        <v>25178</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02271654934567836</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01373040283748473</v>
+        <v>0.01345092123189139</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03874368301828529</v>
+        <v>0.03639657602796308</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>22</v>
@@ -2157,19 +2157,19 @@
         <v>24514</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>15212</v>
+        <v>14787</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>37863</v>
+        <v>35705</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01810754037778028</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01123634512389161</v>
+        <v>0.01092284409600589</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02796745618779401</v>
+        <v>0.02637374989580127</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>765790</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>758422</v>
+        <v>759025</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>769837</v>
+        <v>769989</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.9908457113743985</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9813127171204239</v>
+        <v>0.9820926100097811</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9960823772790992</v>
+        <v>0.9962788937696508</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>734</v>
@@ -2282,19 +2282,19 @@
         <v>796863</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>786854</v>
+        <v>784203</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>805888</v>
+        <v>804440</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.9744243691544522</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.9621847675927117</v>
+        <v>0.9589432825399906</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9854601647441137</v>
+        <v>0.9836898897487502</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1438</v>
@@ -2303,19 +2303,19 @@
         <v>1562653</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1550715</v>
+        <v>1549853</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1571813</v>
+        <v>1572878</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.9824032057190057</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.9748984399467627</v>
+        <v>0.9743560900249989</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9881618167618152</v>
+        <v>0.9888315971663022</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>7075</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3028</v>
+        <v>2876</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>14443</v>
+        <v>13840</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.009154288625601572</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003917622720900737</v>
+        <v>0.003721106230349196</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01868728287957588</v>
+        <v>0.01790738999021879</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>19</v>
@@ -2353,19 +2353,19 @@
         <v>20915</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>11890</v>
+        <v>13338</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>30924</v>
+        <v>33575</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02557563084554784</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01453983525588677</v>
+        <v>0.01631011025124989</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03781523240728887</v>
+        <v>0.0410567174600095</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>26</v>
@@ -2374,19 +2374,19 @@
         <v>27990</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>18830</v>
+        <v>17765</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>39928</v>
+        <v>40790</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01759679428099426</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01183818323818469</v>
+        <v>0.01116840283369784</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02510156005323741</v>
+        <v>0.02564390997500121</v>
       </c>
     </row>
     <row r="27">
@@ -2478,19 +2478,19 @@
         <v>3366862</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3350326</v>
+        <v>3350188</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3379199</v>
+        <v>3378725</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9865628540672277</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9817176140333566</v>
+        <v>0.9816771759586149</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9901780654445506</v>
+        <v>0.9900389981546076</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3171</v>
@@ -2499,19 +2499,19 @@
         <v>3420740</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3397370</v>
+        <v>3397443</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3441978</v>
+        <v>3439955</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9646860095421633</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9580953216572092</v>
+        <v>0.9581159101152427</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.970675415563794</v>
+        <v>0.970104925892195</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6323</v>
@@ -2520,19 +2520,19 @@
         <v>6787602</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6758135</v>
+        <v>6757315</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6812380</v>
+        <v>6811616</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9754149859971541</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9711804396324873</v>
+        <v>0.9710626161845307</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9789757238918145</v>
+        <v>0.9788660097509143</v>
       </c>
     </row>
     <row r="29">
@@ -2549,19 +2549,19 @@
         <v>45857</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>33520</v>
+        <v>33994</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>62393</v>
+        <v>62531</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01343714593277233</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.009821934555449458</v>
+        <v>0.009961001845392527</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01828238596664388</v>
+        <v>0.01832282404138512</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>117</v>
@@ -2570,19 +2570,19 @@
         <v>125222</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>103984</v>
+        <v>106007</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>148592</v>
+        <v>148519</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03531399045783663</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02932458443620587</v>
+        <v>0.02989507410780497</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0419046783427907</v>
+        <v>0.04188408988475732</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>160</v>
@@ -2591,19 +2591,19 @@
         <v>171079</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>146301</v>
+        <v>147065</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>200546</v>
+        <v>201366</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02458501400284589</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02102427610818546</v>
+        <v>0.02113399024908574</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02881956036751269</v>
+        <v>0.02893738381546927</v>
       </c>
     </row>
     <row r="30">
@@ -2939,19 +2939,19 @@
         <v>281705</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>273026</v>
+        <v>273405</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>287360</v>
+        <v>287660</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9621779508871918</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9325348258914463</v>
+        <v>0.9338319319194853</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9814944625692006</v>
+        <v>0.9825202162494288</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>250</v>
@@ -2960,19 +2960,19 @@
         <v>260680</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>248910</v>
+        <v>249924</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>269289</v>
+        <v>269813</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9075606415214413</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8665802093524413</v>
+        <v>0.8701121628117552</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9375324164151343</v>
+        <v>0.939354779582939</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>505</v>
@@ -2981,19 +2981,19 @@
         <v>542385</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>528360</v>
+        <v>527696</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>552767</v>
+        <v>553425</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9351304110891888</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9109490055216655</v>
+        <v>0.9098049766304097</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9530294271032814</v>
+        <v>0.9541638784038022</v>
       </c>
     </row>
     <row r="5">
@@ -3010,19 +3010,19 @@
         <v>11073</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5418</v>
+        <v>5118</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19752</v>
+        <v>19373</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03782204911280818</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01850553743079938</v>
+        <v>0.0174797837505712</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06746517410855365</v>
+        <v>0.06616806808051454</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -3031,19 +3031,19 @@
         <v>26552</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17943</v>
+        <v>17419</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38322</v>
+        <v>37308</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09243935847855866</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06246758358486566</v>
+        <v>0.06064522041706095</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1334197906475587</v>
+        <v>0.1298878371882449</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>36</v>
@@ -3052,19 +3052,19 @@
         <v>37625</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>27243</v>
+        <v>26585</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>51650</v>
+        <v>52314</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0648695889108112</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04697057289671856</v>
+        <v>0.04583612159619748</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08905099447833457</v>
+        <v>0.09019502336959002</v>
       </c>
     </row>
     <row r="6">
@@ -3156,7 +3156,7 @@
         <v>498487</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>494432</v>
+        <v>494360</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>499503</v>
@@ -3165,7 +3165,7 @@
         <v>0.9979650110726961</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9898472623015107</v>
+        <v>0.9897044469740988</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -3177,7 +3177,7 @@
         <v>510082</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>503929</v>
+        <v>504453</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>513273</v>
@@ -3186,10 +3186,10 @@
         <v>0.9916771930308151</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9797150098834029</v>
+        <v>0.9807328040951097</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9978816091451467</v>
+        <v>0.9978810175932024</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>944</v>
@@ -3198,19 +3198,19 @@
         <v>1008569</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1001579</v>
+        <v>1002146</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1011847</v>
+        <v>1011832</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9947750238502592</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9878806771979834</v>
+        <v>0.9884402134053515</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9980086757355726</v>
+        <v>0.9979940445088196</v>
       </c>
     </row>
     <row r="8">
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5071</v>
+        <v>5143</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.002034988927303927</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0101527376984893</v>
+        <v>0.01029555302590125</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -3251,16 +3251,16 @@
         <v>1090</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10434</v>
+        <v>9910</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.00832280696918487</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.002118390854853392</v>
+        <v>0.00211898240679764</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02028499011659694</v>
+        <v>0.01926719590489036</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -3269,19 +3269,19 @@
         <v>5297</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2019</v>
+        <v>2034</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12287</v>
+        <v>11720</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.005224976149740795</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.001991324264427334</v>
+        <v>0.002005955491180438</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01211932280201576</v>
+        <v>0.01155978659464871</v>
       </c>
     </row>
     <row r="9">
@@ -3373,19 +3373,19 @@
         <v>311628</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>306887</v>
+        <v>306879</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>313596</v>
+        <v>313591</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9909149489807249</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9758409622689894</v>
+        <v>0.9758140329132917</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9971720192241735</v>
+        <v>0.9971586032843395</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>323</v>
@@ -3394,19 +3394,19 @@
         <v>327878</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>320685</v>
+        <v>321531</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>331726</v>
+        <v>331953</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9775002851724127</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9560546657867099</v>
+        <v>0.9585790451581766</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9889712198019499</v>
+        <v>0.9896483250984488</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>651</v>
@@ -3415,19 +3415,19 @@
         <v>639506</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>632785</v>
+        <v>632027</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>644340</v>
+        <v>644270</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9839915111002968</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9736496902370652</v>
+        <v>0.9724837067565724</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9914293281502103</v>
+        <v>0.9913213611965234</v>
       </c>
     </row>
     <row r="11">
@@ -3444,19 +3444,19 @@
         <v>2857</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7598</v>
+        <v>7606</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.009085051019275134</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002827980775826386</v>
+        <v>0.002841396715660541</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02415903773101059</v>
+        <v>0.024185967086708</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -3465,19 +3465,19 @@
         <v>7547</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3699</v>
+        <v>3472</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14740</v>
+        <v>13894</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02249971482758725</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01102878019805001</v>
+        <v>0.0103516749015509</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04394533421329003</v>
+        <v>0.04142095484182339</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -3486,19 +3486,19 @@
         <v>10404</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5570</v>
+        <v>5640</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>17125</v>
+        <v>17883</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01600848889970322</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.008570671849789557</v>
+        <v>0.008678638803476676</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02635030976293487</v>
+        <v>0.02751629324342788</v>
       </c>
     </row>
     <row r="12">
@@ -3590,19 +3590,19 @@
         <v>358038</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>349864</v>
+        <v>350709</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>363123</v>
+        <v>363065</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9723108393451952</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9501145930164304</v>
+        <v>0.9524086745435879</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9861200764455099</v>
+        <v>0.9859622151186859</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>332</v>
@@ -3611,19 +3611,19 @@
         <v>358580</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>346715</v>
+        <v>346728</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>367955</v>
+        <v>367195</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9303465205928999</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8995633883224591</v>
+        <v>0.8995964057548093</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9546703236266976</v>
+        <v>0.9526980639969127</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>674</v>
@@ -3632,19 +3632,19 @@
         <v>716618</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>704016</v>
+        <v>701441</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>727944</v>
+        <v>726537</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9508500445219827</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9341291743873888</v>
+        <v>0.9307123300181718</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.965878614963092</v>
+        <v>0.9640113486977266</v>
       </c>
     </row>
     <row r="14">
@@ -3661,19 +3661,19 @@
         <v>10196</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5111</v>
+        <v>5169</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18370</v>
+        <v>17525</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02768916065480471</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01387992355449002</v>
+        <v>0.01403778488131407</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0498854069835696</v>
+        <v>0.04759132545641203</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>24</v>
@@ -3682,19 +3682,19 @@
         <v>26846</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17471</v>
+        <v>18231</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>38711</v>
+        <v>38698</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06965347940710011</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04532967637330251</v>
+        <v>0.04730193600308739</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1004366116775409</v>
+        <v>0.1004035942451908</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>34</v>
@@ -3703,19 +3703,19 @@
         <v>37042</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>25716</v>
+        <v>27123</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>49644</v>
+        <v>52219</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04914995547801726</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03412138503690796</v>
+        <v>0.03598865130227324</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06587082561261073</v>
+        <v>0.06928766998182821</v>
       </c>
     </row>
     <row r="15">
@@ -3807,7 +3807,7 @@
         <v>210228</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>205672</v>
+        <v>206594</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>211221</v>
@@ -3816,7 +3816,7 @@
         <v>0.9953006948965886</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9737281492455583</v>
+        <v>0.9780955599261536</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>1</v>
@@ -3828,19 +3828,19 @@
         <v>208945</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>200330</v>
+        <v>201318</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>214049</v>
+        <v>214186</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9558893258940199</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9164784601014795</v>
+        <v>0.9209969347287007</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9792371216268235</v>
+        <v>0.979866751929816</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>425</v>
@@ -3849,19 +3849,19 @@
         <v>419173</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>410378</v>
+        <v>410639</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>424428</v>
+        <v>424672</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9752572965627638</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.954794793170934</v>
+        <v>0.9553999052119123</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9874823676237608</v>
+        <v>0.9880501368321267</v>
       </c>
     </row>
     <row r="17">
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5549</v>
+        <v>4627</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.004699305103411378</v>
@@ -3890,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02627185075444255</v>
+        <v>0.02190444007384727</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -3899,19 +3899,19 @@
         <v>9642</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4538</v>
+        <v>4401</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18257</v>
+        <v>17269</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04411067410598008</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02076287837317646</v>
+        <v>0.020133248070184</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08352153989852042</v>
+        <v>0.07900306527129924</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -3920,19 +3920,19 @@
         <v>10635</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5380</v>
+        <v>5136</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19430</v>
+        <v>19169</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02474270343723612</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01251763237623908</v>
+        <v>0.01194986316787339</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04520520682906617</v>
+        <v>0.04460009478808824</v>
       </c>
     </row>
     <row r="18">
@@ -4024,19 +4024,19 @@
         <v>242136</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>230951</v>
+        <v>231183</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>249427</v>
+        <v>249911</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9202373067989891</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8777313731744849</v>
+        <v>0.8786112432388729</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9479474338307218</v>
+        <v>0.9497895355280487</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>236</v>
@@ -4045,19 +4045,19 @@
         <v>246449</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>235809</v>
+        <v>235097</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>254535</v>
+        <v>254232</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.902364185758525</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8634051715556348</v>
+        <v>0.8607997679675088</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9319709419222076</v>
+        <v>0.9308616163630029</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>476</v>
@@ -4066,19 +4066,19 @@
         <v>488585</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>474613</v>
+        <v>474292</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>501374</v>
+        <v>500648</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.911134226703507</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8850783786230021</v>
+        <v>0.8844808761507866</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9349835600936028</v>
+        <v>0.933629467475962</v>
       </c>
     </row>
     <row r="20">
@@ -4095,19 +4095,19 @@
         <v>20987</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13696</v>
+        <v>13212</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>32172</v>
+        <v>31940</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07976269320101094</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05205256616927807</v>
+        <v>0.05021046447195127</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.122268626825515</v>
+        <v>0.1213887567611272</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>27</v>
@@ -4116,19 +4116,19 @@
         <v>26666</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18580</v>
+        <v>18883</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>37306</v>
+        <v>38018</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09763581424147504</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06802905807779236</v>
+        <v>0.06913838363699712</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1365948284443653</v>
+        <v>0.1392002320324912</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>46</v>
@@ -4137,19 +4137,19 @@
         <v>47653</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>34864</v>
+        <v>35590</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>61625</v>
+        <v>61946</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08886577329649303</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06501643990639719</v>
+        <v>0.06637053252403798</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1149216213769979</v>
+        <v>0.1155191238492134</v>
       </c>
     </row>
     <row r="21">
@@ -4241,19 +4241,19 @@
         <v>647371</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>639576</v>
+        <v>639492</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>651699</v>
+        <v>651815</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.989774048019327</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9778564011273686</v>
+        <v>0.9777277349914277</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9963914093033008</v>
+        <v>0.9965692634190506</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>620</v>
@@ -4262,19 +4262,19 @@
         <v>662592</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>651658</v>
+        <v>650820</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>670613</v>
+        <v>671219</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9687335350310857</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9527465858556855</v>
+        <v>0.95152211848304</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9804595974539354</v>
+        <v>0.9813456437447466</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1192</v>
@@ -4283,19 +4283,19 @@
         <v>1309962</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1297100</v>
+        <v>1296387</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1318939</v>
+        <v>1319423</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.979018554129611</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9694058990237027</v>
+        <v>0.9688729905520675</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9857275002568796</v>
+        <v>0.9860895061008206</v>
       </c>
     </row>
     <row r="23">
@@ -4312,19 +4312,19 @@
         <v>6688</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2360</v>
+        <v>2244</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14483</v>
+        <v>14567</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01022595198067296</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.003608590696699112</v>
+        <v>0.003430736580949383</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02214359887263135</v>
+        <v>0.02227226500857238</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>19</v>
@@ -4333,19 +4333,19 @@
         <v>21386</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>13365</v>
+        <v>12759</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>32320</v>
+        <v>33158</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03126646496891427</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01954040254606434</v>
+        <v>0.01865435625525336</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04725341414431405</v>
+        <v>0.04847788151695994</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>25</v>
@@ -4354,19 +4354,19 @@
         <v>28074</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>19097</v>
+        <v>18613</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>40936</v>
+        <v>41649</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02098144587038903</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01427249974312032</v>
+        <v>0.01391049389917957</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03059410097629718</v>
+        <v>0.03112700944793255</v>
       </c>
     </row>
     <row r="24">
@@ -4458,19 +4458,19 @@
         <v>766890</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>760458</v>
+        <v>759656</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>771736</v>
+        <v>771113</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.9888681463265973</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9805738754958931</v>
+        <v>0.9795401757725144</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9951171353877896</v>
+        <v>0.9943134859466143</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>728</v>
@@ -4479,19 +4479,19 @@
         <v>793845</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>779825</v>
+        <v>779239</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>804238</v>
+        <v>803685</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.963310037300413</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.94629732161989</v>
+        <v>0.9455863680942275</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.975922627182921</v>
+        <v>0.9752516697391833</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1466</v>
@@ -4500,19 +4500,19 @@
         <v>1560735</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1546127</v>
+        <v>1545264</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1572795</v>
+        <v>1573201</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.9757011756636037</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.9665693260354467</v>
+        <v>0.9660294369521125</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9832411381354784</v>
+        <v>0.9834948129532407</v>
       </c>
     </row>
     <row r="26">
@@ -4529,19 +4529,19 @@
         <v>8633</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3787</v>
+        <v>4410</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15065</v>
+        <v>15867</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01113185367340275</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004882864612210412</v>
+        <v>0.005686514053385604</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01942612450410684</v>
+        <v>0.02045982422748565</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>25</v>
@@ -4550,19 +4550,19 @@
         <v>30235</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>19842</v>
+        <v>20395</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>44255</v>
+        <v>44841</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03668996269958705</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02407737281707896</v>
+        <v>0.0247483302608166</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05370267838011002</v>
+        <v>0.05441363190577244</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>34</v>
@@ -4571,19 +4571,19 @@
         <v>38868</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>26808</v>
+        <v>26402</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>53476</v>
+        <v>54339</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02429882433639626</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01675886186452098</v>
+        <v>0.01650518704675957</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03343067396455338</v>
+        <v>0.03397056304788754</v>
       </c>
     </row>
     <row r="27">
@@ -4675,19 +4675,19 @@
         <v>3316481</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3298648</v>
+        <v>3300599</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3331239</v>
+        <v>3332099</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9815194190405333</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9762416092136781</v>
+        <v>0.9768191088141184</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9858870175708921</v>
+        <v>0.9861413766666732</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3176</v>
@@ -4696,19 +4696,19 @@
         <v>3369050</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3341466</v>
+        <v>3339709</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3391690</v>
+        <v>3392294</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9565174248277428</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.948685773943043</v>
+        <v>0.9481869664473789</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9629449636026979</v>
+        <v>0.9631164728167574</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6333</v>
@@ -4717,19 +4717,19 @@
         <v>6685532</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6654897</v>
+        <v>6655676</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6714637</v>
+        <v>6712605</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9687588793294427</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9643197136510422</v>
+        <v>0.9644327124931579</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9729763679956909</v>
+        <v>0.9726819110953216</v>
       </c>
     </row>
     <row r="29">
@@ -4746,19 +4746,19 @@
         <v>62445</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>47687</v>
+        <v>46827</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>80278</v>
+        <v>78327</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01848058095946675</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01411298242910787</v>
+        <v>0.0138586233333268</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02375839078632188</v>
+        <v>0.02318089118588154</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>142</v>
@@ -4767,19 +4767,19 @@
         <v>153155</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>130515</v>
+        <v>129911</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>180739</v>
+        <v>182496</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04348257517225716</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03705503639730215</v>
+        <v>0.03688352718324269</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05131422605695739</v>
+        <v>0.05181303355262144</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>201</v>
@@ -4788,19 +4788,19 @@
         <v>215599</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>186494</v>
+        <v>188526</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>246234</v>
+        <v>245455</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03124112067055734</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02702363200430916</v>
+        <v>0.02731808890467847</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03568028634895784</v>
+        <v>0.03556728750684211</v>
       </c>
     </row>
     <row r="30">
